--- a/Assets/_ExcelData/NPCData.xlsx
+++ b/Assets/_ExcelData/NPCData.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\(R&amp;D)ChatAPI_QuestGenerator\Assets\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\(R&amp;D)ChatAPI_QuestGenerator\Assets\_ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{337A34A3-0E93-48A3-B353-B4AA36EB951C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1854FD6B-5D89-4B65-A1AD-BAEE01AFC2ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{FABA762E-1D3F-45C2-A656-0C79C23C5F7F}"/>
   </bookViews>
@@ -478,7 +478,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -489,10 +489,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
@@ -500,10 +500,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
         <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
@@ -511,10 +511,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
         <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>

--- a/Assets/_ExcelData/NPCData.xlsx
+++ b/Assets/_ExcelData/NPCData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\(R&amp;D)ChatAPI_QuestGenerator\Assets\_ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1854FD6B-5D89-4B65-A1AD-BAEE01AFC2ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D350D39-A194-4BA7-900C-F31A7C18A3CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{FABA762E-1D3F-45C2-A656-0C79C23C5F7F}"/>
   </bookViews>
@@ -54,10 +54,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>게임의 듀토리얼 교관. 플레이어가 기본적인 무기와 스킬 사용법을 익히기 위해 Lv 3 이하의 몬스터를 잡게 시킨다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>M0001</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -71,6 +67,10 @@
   </si>
   <si>
     <t>찰리중사의 아내. 항상 바쁜 찰리 중사에게 무언가 전달하는 퀘스트를 요청한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임의 듀토리얼 교관. 플레이어를 훈련병이라 부르며 단호한 말투를 사용한다.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -478,7 +478,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -503,21 +503,21 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
         <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/_ExcelData/NPCData.xlsx
+++ b/Assets/_ExcelData/NPCData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\(R&amp;D)ChatAPI_QuestGenerator\Assets\_ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D350D39-A194-4BA7-900C-F31A7C18A3CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BB6CBD3-45A4-4B38-8B5B-F428837389B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{FABA762E-1D3F-45C2-A656-0C79C23C5F7F}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{FABA762E-1D3F-45C2-A656-0C79C23C5F7F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>NpcID</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -66,11 +66,71 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>찰리중사의 아내. 항상 바쁜 찰리 중사에게 무언가 전달하는 퀘스트를 요청한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>게임의 듀토리얼 교관. 플레이어를 훈련병이라 부르며 단호한 말투를 사용한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>찰리중사의 아내. 플레이어를 모험가라 부르며 존댓말을 사용한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>리코</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>S0002</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>미첼의 딸. 철이 없으며 자신도 플레이어 처럼 모험가가 되고싶어 한다. 플레이어를 모험가라 부른다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>메치리오</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>M0002</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이어가 속한 제국의 국왕. 이유를 알 수 없는 원인에 의해 늘어난 몬스터 때문에 골치가 아프다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>클리드</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>M0003</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>메치리오 국왕의 비서. 최근 건강이 안좋아진 국왕을 위해 여러 재료를 연구한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>M0004</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>세리안</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>수백 년 동안 평화와 번영을 유지하던 '엘리온' 왕국의 국왕. 이유를 알 수 없는 일로 인해 갑작스러운 재앙에 휩싸이게 된다. 대륙의 심장부에 있던 '성역의 나무'가 불타오르면서, 몬스터들이 차원을 넘어 왕국을 침략했다. 고대의 수호자들이 봉인한 '어둠의 서약'이 풀리면서, 엘리온은 이제 멸망의 위기에 처한다. 그러나 예언에 따르면, 한 명의 영웅이 나타나 세상의 균형을 바로잡고 어둠을 물리칠 것이라 한다. 아직 세리안은 영웅이 누군지 모르지만, 갑자기 나타난 모험가(플레이어)에게 범상치 않은 기운을 느끼고 예언에서 말한 영웅이 모험가(플레이어)인지 시험하게 된다. 영웅이 라면 아직 남은 성스러운 씨앗을 찾아 새로운 성역의 나무를 재건할 수 있을 것이다. 또한 어둠의 서약을 풀리게 한 자가 누군지 찾아야 한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>M0005</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>토마스</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>광산의 광부. 광산 깊숙한 곳에서 희귀한 보석인 '용의 눈물'이 발견되었다는 소문이 퍼졌다. 이 보석은 전설에 따르면 강력한 힘이 담겨져 있다고 전해진다. 이 소문이 사실인지 확인하기 위해 모험가에게 지하 광산의 탐색을 부탁한다. 최근 늘어난 몬스터 때문에 위험하므로 조심하라고 당부한다. 부탁을 받고 지하 깊은곳으로 갔지만 용의 눈물이란 보석은 존재하지 않았고 그저 다른 보석들과 다르게 크기가 좀 크고 밝게 빛나는 보석이 있었을 뿐이다.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -133,12 +193,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -475,10 +538,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD9CBF0E-8926-4897-ADFC-E7D5CCA22D88}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -506,7 +569,7 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -517,7 +580,62 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="115.5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="66" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/_ExcelData/NPCData.xlsx
+++ b/Assets/_ExcelData/NPCData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\(R&amp;D)ChatAPI_QuestGenerator\Assets\_ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BB6CBD3-45A4-4B38-8B5B-F428837389B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{728E8E52-468D-4899-A36F-832D979619F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{FABA762E-1D3F-45C2-A656-0C79C23C5F7F}"/>
+    <workbookView xWindow="4470" yWindow="3705" windowWidth="28800" windowHeight="12645" xr2:uid="{FABA762E-1D3F-45C2-A656-0C79C23C5F7F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,14 +38,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
-    <t>NpcID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>NpcName</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Story</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -131,6 +123,14 @@
   </si>
   <si>
     <t>광산의 광부. 광산 깊숙한 곳에서 희귀한 보석인 '용의 눈물'이 발견되었다는 소문이 퍼졌다. 이 보석은 전설에 따르면 강력한 힘이 담겨져 있다고 전해진다. 이 소문이 사실인지 확인하기 위해 모험가에게 지하 광산의 탐색을 부탁한다. 최근 늘어난 몬스터 때문에 위험하므로 조심하라고 당부한다. 부탁을 받고 지하 깊은곳으로 갔지만 용의 눈물이란 보석은 존재하지 않았고 그저 다른 보석들과 다르게 크기가 좀 크고 밝게 빛나는 보석이 있었을 뿐이다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -541,7 +541,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -552,90 +552,90 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
         <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
         <v>12</v>
-      </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
         <v>15</v>
-      </c>
-      <c r="B6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="115.5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="66" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/_ExcelData/NPCData.xlsx
+++ b/Assets/_ExcelData/NPCData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\(R&amp;D)ChatAPI_QuestGenerator\Assets\_ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{728E8E52-468D-4899-A36F-832D979619F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22ACADA7-1CAB-49F9-AA0C-B43E2D440F33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4470" yWindow="3705" windowWidth="28800" windowHeight="12645" xr2:uid="{FABA762E-1D3F-45C2-A656-0C79C23C5F7F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{FABA762E-1D3F-45C2-A656-0C79C23C5F7F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,93 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Story</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>찰리중사</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>M0001</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>S0001</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>미첼</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>게임의 듀토리얼 교관. 플레이어를 훈련병이라 부르며 단호한 말투를 사용한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>찰리중사의 아내. 플레이어를 모험가라 부르며 존댓말을 사용한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>리코</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>S0002</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>미첼의 딸. 철이 없으며 자신도 플레이어 처럼 모험가가 되고싶어 한다. 플레이어를 모험가라 부른다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>메치리오</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>M0002</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>플레이어가 속한 제국의 국왕. 이유를 알 수 없는 원인에 의해 늘어난 몬스터 때문에 골치가 아프다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>클리드</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>M0003</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>메치리오 국왕의 비서. 최근 건강이 안좋아진 국왕을 위해 여러 재료를 연구한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>M0004</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>세리안</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>수백 년 동안 평화와 번영을 유지하던 '엘리온' 왕국의 국왕. 이유를 알 수 없는 일로 인해 갑작스러운 재앙에 휩싸이게 된다. 대륙의 심장부에 있던 '성역의 나무'가 불타오르면서, 몬스터들이 차원을 넘어 왕국을 침략했다. 고대의 수호자들이 봉인한 '어둠의 서약'이 풀리면서, 엘리온은 이제 멸망의 위기에 처한다. 그러나 예언에 따르면, 한 명의 영웅이 나타나 세상의 균형을 바로잡고 어둠을 물리칠 것이라 한다. 아직 세리안은 영웅이 누군지 모르지만, 갑자기 나타난 모험가(플레이어)에게 범상치 않은 기운을 느끼고 예언에서 말한 영웅이 모험가(플레이어)인지 시험하게 된다. 영웅이 라면 아직 남은 성스러운 씨앗을 찾아 새로운 성역의 나무를 재건할 수 있을 것이다. 또한 어둠의 서약을 풀리게 한 자가 누군지 찾아야 한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>M0005</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>토마스</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>광산의 광부. 광산 깊숙한 곳에서 희귀한 보석인 '용의 눈물'이 발견되었다는 소문이 퍼졌다. 이 보석은 전설에 따르면 강력한 힘이 담겨져 있다고 전해진다. 이 소문이 사실인지 확인하기 위해 모험가에게 지하 광산의 탐색을 부탁한다. 최근 늘어난 몬스터 때문에 위험하므로 조심하라고 당부한다. 부탁을 받고 지하 깊은곳으로 갔지만 용의 눈물이란 보석은 존재하지 않았고 그저 다른 보석들과 다르게 크기가 좀 크고 밝게 빛나는 보석이 있었을 뿐이다.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -131,6 +47,18 @@
   </si>
   <si>
     <t>ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>찰리중령</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CM0001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>정체불명의 바이러스로 인해 무법지대가 되어버린 세상. 바이러스에 변이된 사람은 감염되어 생존자를 공격하고 공격당한 생존자도 그들과 똑같이 변이된다. 군대마저 제 기능을 잃은 상황에서 찰리중령은 전투가 가능한 용병을 모아 베이스 캠프 구축을 실시한다. 필요한 보급품과 아직 주변에 남은 변이체들을 제거하기 위한 사람을 찾는다. 처음 플레이어가 찰리 중령을 만났을 때 어리버리한 모습에 플레이어를 무시하는 듯한 발언을 한다. 플레이어를 용병이라 부른다.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -541,102 +469,46 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="12.25" customWidth="1"/>
     <col min="2" max="2" width="11.75" customWidth="1"/>
     <col min="3" max="3" width="98.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C4" s="2"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>9</v>
-      </c>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C7" s="2"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="115.5" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="66" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>21</v>
-      </c>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C8" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/Assets/_ExcelData/NPCData.xlsx
+++ b/Assets/_ExcelData/NPCData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\(R&amp;D)ChatAPI_QuestGenerator\Assets\_ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22ACADA7-1CAB-49F9-AA0C-B43E2D440F33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{878B36B8-9E3F-4463-AB54-8E2063BB09D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{FABA762E-1D3F-45C2-A656-0C79C23C5F7F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Story</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -58,7 +58,31 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>정체불명의 바이러스로 인해 무법지대가 되어버린 세상. 바이러스에 변이된 사람은 감염되어 생존자를 공격하고 공격당한 생존자도 그들과 똑같이 변이된다. 군대마저 제 기능을 잃은 상황에서 찰리중령은 전투가 가능한 용병을 모아 베이스 캠프 구축을 실시한다. 필요한 보급품과 아직 주변에 남은 변이체들을 제거하기 위한 사람을 찾는다. 처음 플레이어가 찰리 중령을 만났을 때 어리버리한 모습에 플레이어를 무시하는 듯한 발언을 한다. 플레이어를 용병이라 부른다.</t>
+    <t>리아</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CM0002</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Info</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>정체불명의 바이러스로 인해 무법지대가 되어버린 세상. 바이러스에 변이된 사람은 감염되어 생존자를 공격하고 공격당한 생존자도 그들과 똑같이 변이된다. 군대마저 제 기능을 잃은 상황에서 찰리중령은 전투가 가능한 용병을 모아 베이스 캠프 구축을 실시한다. 필요한 보급품과 아직 주변에 남은 변이체들을 제거하기 위한 사람을 찾는다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이어를 용병이라 부르며 리아의 아빠. 미숙해보이는 플레이어를 무시하는 듯한 단호하면서도 무시하는듯한 말투를 사용한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이어를 언니라 부르며 단정한 말투를 사용한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>위험한 일을 하는 찰리 중령을 걱정하며 빨리 베이스 캠프가 지어져 안전한 곳에서 지내고 싶어한다.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -466,10 +490,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD9CBF0E-8926-4897-ADFC-E7D5CCA22D88}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -477,9 +501,10 @@
     <col min="1" max="1" width="12.25" customWidth="1"/>
     <col min="2" max="2" width="11.75" customWidth="1"/>
     <col min="3" max="3" width="98.375" customWidth="1"/>
+    <col min="4" max="4" width="77.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -487,10 +512,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="66" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -498,16 +526,33 @@
         <v>4</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>5</v>
       </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C4" s="2"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C7" s="2"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C8" s="2"/>
     </row>
   </sheetData>

--- a/Assets/_ExcelData/NPCData.xlsx
+++ b/Assets/_ExcelData/NPCData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\(R&amp;D)ChatAPI_QuestGenerator\Assets\_ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{878B36B8-9E3F-4463-AB54-8E2063BB09D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BB517B5-66C5-42DC-BD2B-E49E80FC0FB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{FABA762E-1D3F-45C2-A656-0C79C23C5F7F}"/>
+    <workbookView xWindow="38400" yWindow="2940" windowWidth="28800" windowHeight="12645" xr2:uid="{FABA762E-1D3F-45C2-A656-0C79C23C5F7F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
   <si>
     <t>Story</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -83,6 +83,42 @@
   </si>
   <si>
     <t>위험한 일을 하는 찰리 중령을 걱정하며 빨리 베이스 캠프가 지어져 안전한 곳에서 지내고 싶어한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이어를 용병이라 부르며 리아의 아빠. 이전의 부탁을 잘 완료한 플레이어를 조금은 인정하지만, 아직은 플레이어의 실력을 믿지 않는다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">바이러스 해결책이 존재한다는 소문을 듣고 사실을 확인하기 위해 플레이어를 찾는다. 서쪽 구역의 연구소에서 들려온 무전 때문에 이 소문은 퍼지기 시작했지만, 몇일 전부터 무전은 들리지 않는다. 느낌상 이미 연구소는 급성 변이체의 공격으로 인해 무너진듯 하다. 찰리 중령은 사실을 확인하기 위해 플레이어에게 연구소에 존재하는 단서를 찾아오게 시킨다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>연구 일지를 살펴본 찰리 중령은 연구소에 아주 강한 변이체가 있다는 단서를 확보한다. 이 변이체가 후에 베이스 캠프에 위협이 될 지도 모르기 때문에 플레이어에게 제거를 지시한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>닉</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CM0003</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>찰리 중령 캠프의 생존자 민간인. 플레이어를 용병이라 부른다. 남자이며 정중한 말투를 사용한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">가족을 잃고 방황하다 찰리 중령을 만나 베이스 캠프로 돌아왔다. 바이러스 유출 사건이 터지고 가족을 모두 잃었으며 삶에 의욕이 없어져 있는 상태이다. 플레이어에게 몰래 개인적인 부탁을 한다. 서쪽 구역의 자신의 집에서 가족사진과 변이체로 변한 자신의 가족을 영면에 들게 해달라는 부탁이다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>찰리중령_1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>찰리중령_2</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -493,7 +529,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -532,22 +568,61 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="66" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B5" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C4" s="2"/>
+    <row r="6" spans="1:4" ht="66" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C7" s="2"/>

--- a/Assets/_ExcelData/NPCData.xlsx
+++ b/Assets/_ExcelData/NPCData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\(R&amp;D)ChatAPI_QuestGenerator\Assets\_ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BB517B5-66C5-42DC-BD2B-E49E80FC0FB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{706639A5-60F9-41CC-A00A-401CCBB0CC24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="2940" windowWidth="28800" windowHeight="12645" xr2:uid="{FABA762E-1D3F-45C2-A656-0C79C23C5F7F}"/>
+    <workbookView xWindow="6720" yWindow="5220" windowWidth="28800" windowHeight="12645" xr2:uid="{FABA762E-1D3F-45C2-A656-0C79C23C5F7F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
   <si>
     <t>Story</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -74,10 +74,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>플레이어를 용병이라 부르며 리아의 아빠. 미숙해보이는 플레이어를 무시하는 듯한 단호하면서도 무시하는듯한 말투를 사용한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>플레이어를 언니라 부르며 단정한 말투를 사용한다.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -86,10 +82,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>플레이어를 용병이라 부르며 리아의 아빠. 이전의 부탁을 잘 완료한 플레이어를 조금은 인정하지만, 아직은 플레이어의 실력을 믿지 않는다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">바이러스 해결책이 존재한다는 소문을 듣고 사실을 확인하기 위해 플레이어를 찾는다. 서쪽 구역의 연구소에서 들려온 무전 때문에 이 소문은 퍼지기 시작했지만, 몇일 전부터 무전은 들리지 않는다. 느낌상 이미 연구소는 급성 변이체의 공격으로 인해 무너진듯 하다. 찰리 중령은 사실을 확인하기 위해 플레이어에게 연구소에 존재하는 단서를 찾아오게 시킨다. </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -119,6 +111,18 @@
   </si>
   <si>
     <t>찰리중령_2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이어를 용병이라 부르며 리아의 아빠. 플레이어보다 전투 경험이 많아 미숙해보이는 플레이어를 깔보는 듯한 말투와 단호한 사용한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이어를 용병이라 부르며 리아의 아빠. 플레이어보다 전투 경험이 많아 미숙해보이는 플레이어를 깔보는 듯한 말투와 단호한 사용한다. 이전의 부탁을 잘 완료한 플레이어를 조금은 인정하지만, 아직은 플레이어의 실력을 믿지 않는다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이어를 용병이라 부르며 리아의 아빠. 이전의 퀘스트를 성공적으로 완료한 플레이어의 실력을 인정하며 단호하지만 플레이어를 존중하는 말투를 사용한다.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -529,7 +533,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -562,7 +566,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>8</v>
@@ -570,30 +574,30 @@
     </row>
     <row r="3" spans="1:4" ht="66" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="33" x14ac:dyDescent="0.3">
@@ -604,24 +608,24 @@
         <v>6</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="66" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B6" t="s">
+      <c r="D6" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">

--- a/Assets/_ExcelData/NPCData.xlsx
+++ b/Assets/_ExcelData/NPCData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\(R&amp;D)ChatAPI_QuestGenerator\Assets\_ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{706639A5-60F9-41CC-A00A-401CCBB0CC24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07589A14-97DC-4A8B-AA7F-0746547FF495}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6720" yWindow="5220" windowWidth="28800" windowHeight="12645" xr2:uid="{FABA762E-1D3F-45C2-A656-0C79C23C5F7F}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{FABA762E-1D3F-45C2-A656-0C79C23C5F7F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -114,15 +114,15 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>플레이어를 용병이라 부르며 리아의 아빠. 플레이어보다 전투 경험이 많아 미숙해보이는 플레이어를 깔보는 듯한 말투와 단호한 사용한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>플레이어를 용병이라 부르며 리아의 아빠. 플레이어보다 전투 경험이 많아 미숙해보이는 플레이어를 깔보는 듯한 말투와 단호한 사용한다. 이전의 부탁을 잘 완료한 플레이어를 조금은 인정하지만, 아직은 플레이어의 실력을 믿지 않는다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>플레이어를 용병이라 부르며 리아의 아빠. 이전의 퀘스트를 성공적으로 완료한 플레이어의 실력을 인정하며 단호하지만 플레이어를 존중하는 말투를 사용한다.</t>
+    <t>리아의 아빠. 플레이어보다 전투 경험이 많아 미숙해보이는 플레이어를 깔보는 듯한 말투와 단호한 사용한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>리아의 아빠. 플레이어보다 전투 경험이 많아 미숙해보이는 플레이어를 깔보는 듯한 말투와 단호한 사용한다. 이전의 부탁을 잘 완료한 플레이어를 조금은 인정하지만, 아직은 플레이어의 실력을 믿지 않는다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>리아의 아빠. 이전의 퀘스트를 성공적으로 완료한 플레이어의 실력을 인정하며 단호하지만 플레이어를 존중하는 말투를 사용한다.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -533,7 +533,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Assets/_ExcelData/NPCData.xlsx
+++ b/Assets/_ExcelData/NPCData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\(R&amp;D)ChatAPI_QuestGenerator\Assets\_ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07589A14-97DC-4A8B-AA7F-0746547FF495}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC001A73-69BD-422A-8661-3654C76575D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{FABA762E-1D3F-45C2-A656-0C79C23C5F7F}"/>
+    <workbookView xWindow="6225" yWindow="4110" windowWidth="28800" windowHeight="12645" xr2:uid="{FABA762E-1D3F-45C2-A656-0C79C23C5F7F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>Story</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -70,10 +70,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>정체불명의 바이러스로 인해 무법지대가 되어버린 세상. 바이러스에 변이된 사람은 감염되어 생존자를 공격하고 공격당한 생존자도 그들과 똑같이 변이된다. 군대마저 제 기능을 잃은 상황에서 찰리중령은 전투가 가능한 용병을 모아 베이스 캠프 구축을 실시한다. 필요한 보급품과 아직 주변에 남은 변이체들을 제거하기 위한 사람을 찾는다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>플레이어를 언니라 부르며 단정한 말투를 사용한다.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -82,14 +78,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">바이러스 해결책이 존재한다는 소문을 듣고 사실을 확인하기 위해 플레이어를 찾는다. 서쪽 구역의 연구소에서 들려온 무전 때문에 이 소문은 퍼지기 시작했지만, 몇일 전부터 무전은 들리지 않는다. 느낌상 이미 연구소는 급성 변이체의 공격으로 인해 무너진듯 하다. 찰리 중령은 사실을 확인하기 위해 플레이어에게 연구소에 존재하는 단서를 찾아오게 시킨다. </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>연구 일지를 살펴본 찰리 중령은 연구소에 아주 강한 변이체가 있다는 단서를 확보한다. 이 변이체가 후에 베이스 캠프에 위협이 될 지도 모르기 때문에 플레이어에게 제거를 지시한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>닉</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -98,10 +86,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>찰리 중령 캠프의 생존자 민간인. 플레이어를 용병이라 부른다. 남자이며 정중한 말투를 사용한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">가족을 잃고 방황하다 찰리 중령을 만나 베이스 캠프로 돌아왔다. 바이러스 유출 사건이 터지고 가족을 모두 잃었으며 삶에 의욕이 없어져 있는 상태이다. 플레이어에게 몰래 개인적인 부탁을 한다. 서쪽 구역의 자신의 집에서 가족사진과 변이체로 변한 자신의 가족을 영면에 들게 해달라는 부탁이다. </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -110,19 +94,23 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>찰리중령_2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>리아의 아빠. 플레이어보다 전투 경험이 많아 미숙해보이는 플레이어를 깔보는 듯한 말투와 단호한 사용한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>리아의 아빠. 플레이어보다 전투 경험이 많아 미숙해보이는 플레이어를 깔보는 듯한 말투와 단호한 사용한다. 이전의 부탁을 잘 완료한 플레이어를 조금은 인정하지만, 아직은 플레이어의 실력을 믿지 않는다.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>리아의 아빠. 이전의 퀘스트를 성공적으로 완료한 플레이어의 실력을 인정하며 단호하지만 플레이어를 존중하는 말투를 사용한다.</t>
+    <t>찰리 중령 캠프의 생존자. 남자이며 정중한 말투를 사용한다. 멸망 전 군부대에서 암호 해독관으로 일을 하였다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>바이러스 해결책이 존재한다는 소문을 듣고 사실을 확인하기 위해 플레이어를 찾는다. 서쪽 구역의 연구소에서 들려온 무전 때문에 이 소문은 퍼지기 시작했지만, 몇일 전부터 무전은 들리지 않는다. 느낌상 이미 연구소는 급성 변이체의 공격으로 인해 무너진듯 하다. 찰리 중령은 사실을 확인하기 위해 플레이어에게 연구소에 존재하는 단서를 찾아오게 시킨다. 연구 일지는 암어로 작성되어 있었고, 이를 해독하기 위해 닉에게 암호 일지 전달을 부탁한다. 암호를 해석한 찰리 중령은 연구소 지하에 철장이 붕괴되어 강력하게 변이된 몬스터가 탈출할지도 모른다는 내용이 적혀있었고, 현 시점에서는 이미 탈출했을 것이라 예상한다. 찰리 중령은 자신의 베이스 캠프에 위협이 될지도 모르는 강력한 몬스터의 제거를 부탁한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>리아의 아빠. 플레이어를 신용할 수 없는 상태이기 때문에 의심스럽고 까칠한 말투를 사용한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>정체불명의 바이러스로 인해 무법지대가 되어버린 세상. 바이러스에 변이된 사람은 감염되어 생존자를 공격하고 공격당한 생존자도 그들과 똑같이 변이된다. 군대마저 제 기능을 잃은 상황에서 찰리중령은 전투가 가능한 믿을만한 사람을 모아 베이스 캠프 구축을 실시한다. 필요한 보급품과 아직 주변에 남은 변이체들을 제거하기 위한 사람을 찾는다.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -530,7 +518,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD9CBF0E-8926-4897-ADFC-E7D5CCA22D88}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
@@ -566,73 +554,59 @@
         <v>4</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="66" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="132" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="66" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="66" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>16</v>
-      </c>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C6" s="2"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C7" s="2"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C8" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/Assets/_ExcelData/NPCData.xlsx
+++ b/Assets/_ExcelData/NPCData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\(R&amp;D)ChatAPI_QuestGenerator\Assets\_ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC001A73-69BD-422A-8661-3654C76575D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9E5649F-2053-40D5-BA19-649A353E75CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6225" yWindow="4110" windowWidth="28800" windowHeight="12645" xr2:uid="{FABA762E-1D3F-45C2-A656-0C79C23C5F7F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{FABA762E-1D3F-45C2-A656-0C79C23C5F7F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
   <si>
     <t>Story</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -111,6 +111,18 @@
   </si>
   <si>
     <t>정체불명의 바이러스로 인해 무법지대가 되어버린 세상. 바이러스에 변이된 사람은 감염되어 생존자를 공격하고 공격당한 생존자도 그들과 똑같이 변이된다. 군대마저 제 기능을 잃은 상황에서 찰리중령은 전투가 가능한 믿을만한 사람을 모아 베이스 캠프 구축을 실시한다. 필요한 보급품과 아직 주변에 남은 변이체들을 제거하기 위한 사람을 찾는다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>찰리중령_T</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SQ001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이어가 전투에 익숙해 질 수 있는 튜토리얼 퀘스트 생성.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -521,7 +533,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -603,7 +615,18 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C6" s="2"/>
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C7" s="2"/>

--- a/Assets/_ExcelData/NPCData.xlsx
+++ b/Assets/_ExcelData/NPCData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\(R&amp;D)ChatAPI_QuestGenerator\Assets\_ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9E5649F-2053-40D5-BA19-649A353E75CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BBD480D-5D8D-4897-8BD5-255D42E7A11A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{FABA762E-1D3F-45C2-A656-0C79C23C5F7F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="29">
   <si>
     <t>Story</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -98,10 +98,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>찰리 중령 캠프의 생존자. 남자이며 정중한 말투를 사용한다. 멸망 전 군부대에서 암호 해독관으로 일을 하였다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>바이러스 해결책이 존재한다는 소문을 듣고 사실을 확인하기 위해 플레이어를 찾는다. 서쪽 구역의 연구소에서 들려온 무전 때문에 이 소문은 퍼지기 시작했지만, 몇일 전부터 무전은 들리지 않는다. 느낌상 이미 연구소는 급성 변이체의 공격으로 인해 무너진듯 하다. 찰리 중령은 사실을 확인하기 위해 플레이어에게 연구소에 존재하는 단서를 찾아오게 시킨다. 연구 일지는 암어로 작성되어 있었고, 이를 해독하기 위해 닉에게 암호 일지 전달을 부탁한다. 암호를 해석한 찰리 중령은 연구소 지하에 철장이 붕괴되어 강력하게 변이된 몬스터가 탈출할지도 모른다는 내용이 적혀있었고, 현 시점에서는 이미 탈출했을 것이라 예상한다. 찰리 중령은 자신의 베이스 캠프에 위협이 될지도 모르는 강력한 몬스터의 제거를 부탁한다.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -114,15 +110,47 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>찰리중령_T</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>SQ001</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>플레이어가 전투에 익숙해 질 수 있는 튜토리얼 퀘스트 생성.</t>
+    <t>닉_1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>찰리 중령 캠프의 생존자. 남자이며 정중한 말투를 사용한다. 존댓말 사용. 멸망 전 군부대에서 암호 해독관으로 일을 하였다. 이전에 가족을 영면에 들게 해달라는 부탁을 들어준 플레이어를 신용한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>찰리 중령 캠프의 생존자. 남자이며 정중한 말투를 사용한다. 존댓말 사용. 멸망 전 군부대에서 암호 해독관으로 일을 하였다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>다시 살겠다는 의지를 찾은 닉. 그는 자신이 일하는 군부대에서 필요한 물품(플레이어 포함)을 구해오려 하지만 전투 능력 부족으로 고민하고 있다. 그는 다른 핑계를 대며 플레이어에게 군 부대까지 몰래 가기 위한 변이체를 정리해 달라고 요청한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>리아의 아빠. 단호한 말투를 사용한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>찰리중령_2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>최근 베이스 캠프 주변을 순찰하다 리아가 적은 일기를 발견한다. 자신 몰래 베이스 캠프 밖으로 나간 리아에게 화가 나 일기를 대신 전달해 줄 것을 요청한다. 리아가 또 밖에 나가 다칠 수 있으니 주변에 청소와 물자를 가져다 올 것을 부탁한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>리아_1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>친해진 플레이어에게 한가지 부탁을 한다. 베이스 캠프로 도망쳐오다가 잃어버린 어머니가 선물한 소중한 곰인형과 찰리 중령(아빠)의 결혼반지를 찾아달라는 부탁이다. 곰인형과 결혼반지를 찾고 기뻐한 리아는 찰리중령(아빠)에게 서프라이즈로 결혼 반지를 전달해달라는 부탁을 한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>닉_2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이어가 연구소에서 구해온 암호 일지를 해독하던 중 특별한 변이체의 정보에 대해 해석하지만 해석에 필요한 데이터가 부족한 상황이다. 연구 일지에는 연구소 서쪽 구역에 암호 해독에 필요한 해독기가 존재한다고 적혀있다. 플레이어에게 해독기를 찾아달라는 부탁을 한다. 해독기를 연구 일지를 해독한 결과 새로운 변이체인 "스케빈져"에 대해 알아낸다. 닉은 스케빈져에 습성을 확인하기 위해 플레이어에게 카메라를 단 뒤 전투를 요청한다.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -530,10 +558,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD9CBF0E-8926-4897-ADFC-E7D5CCA22D88}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -566,10 +594,10 @@
         <v>4</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="132" x14ac:dyDescent="0.3">
@@ -583,53 +611,92 @@
         <v>14</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="66" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+    <row r="6" spans="1:4" ht="66" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="66" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>10</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B7" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="2" t="s">
+      <c r="C7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+    <row r="8" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B6" t="s">
+      <c r="D8" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C7" s="2"/>
+      <c r="D9" s="2" t="s">
+        <v>28</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/Assets/_ExcelData/NPCData.xlsx
+++ b/Assets/_ExcelData/NPCData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\(R&amp;D)ChatAPI_QuestGenerator\Assets\_ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BBD480D-5D8D-4897-8BD5-255D42E7A11A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{342A723E-2A6D-413F-AC16-209D3ACF6591}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{FABA762E-1D3F-45C2-A656-0C79C23C5F7F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="41">
   <si>
     <t>Story</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -142,15 +142,63 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>친해진 플레이어에게 한가지 부탁을 한다. 베이스 캠프로 도망쳐오다가 잃어버린 어머니가 선물한 소중한 곰인형과 찰리 중령(아빠)의 결혼반지를 찾아달라는 부탁이다. 곰인형과 결혼반지를 찾고 기뻐한 리아는 찰리중령(아빠)에게 서프라이즈로 결혼 반지를 전달해달라는 부탁을 한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>닉_2</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>플레이어가 연구소에서 구해온 암호 일지를 해독하던 중 특별한 변이체의 정보에 대해 해석하지만 해석에 필요한 데이터가 부족한 상황이다. 연구 일지에는 연구소 서쪽 구역에 암호 해독에 필요한 해독기가 존재한다고 적혀있다. 플레이어에게 해독기를 찾아달라는 부탁을 한다. 해독기를 연구 일지를 해독한 결과 새로운 변이체인 "스케빈져"에 대해 알아낸다. 닉은 스케빈져에 습성을 확인하기 위해 플레이어에게 카메라를 단 뒤 전투를 요청한다.</t>
+    <t>친해진 플레이어에게 한가지 부탁을 한다. 베이스 캠프로 도망쳐오다가 잃어버린 지금은 사망한 어머니가 선물한 소중한 곰인형과 찰리 중령(아빠)의 결혼반지를 찾아달라는 부탁이다. 곰인형과 결혼반지를 찾고 기뻐한 리아는 찰리중령(아빠)에게 결혼 반지를 전달해달라는 부탁을 한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이어가 연구소에서 구해온 암호 일지를 해독하던 중 특별한 변이체의 정보에 대해 해석하지만 해석에 필요한 데이터가 부족한 상황이다. 연구 일지에는 연구소 서쪽 구역에 암호 해독에 필요한 해독기가 존재한다고 적혀있다. 플레이어에게 해독기를 찾아달라는 부탁을 한다. 해독기를 연구 일지를 해독한 결과 새로운 변이체인 "스캐빈져"에 대해 알아낸다. 닉은 스캐빈져에 습성을 확인하기 위해 플레이어에게 카메라를 단 뒤 전투를 요청한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>찰리중령_3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 변이체 제거 후 찰리 중령은 근본적인 원인 해결을 위해 연구소 폭파를 결심한다. 따라서 플레이어에게 연구소 폭파를 위한 폭탄을 구해오라고 지시한다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>찰리중령_5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>찰리중령_6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>찰리중령_7</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>계속되는 변이체 증가로 인해 찰리 중령은 원인을 찾아 뿌리뽑으려 한다. 그 원인을 찾기 위해 주변의 정찰을 부탁하고 특이 사항이 없는지 확인을 부탁한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">플레이어는 찰리 중령의 앞선 부탁으로 변이체를 소탕하며 연구소 부근 거대한 물체가 지나간 것을 목격한다. 찰리 중령은 이를 확인하기 위해 플레이어에게 주변 CCTV정보를 모아올 것을 지시한다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">플레이어가 모아온 CCTV결과를 확인한 찰리 중령은 닉에게 CCTV 자료를 전달하고 그 변이체가 어떤 것인지 알아와 달라고 부탁한다. 닉은 해당 CCTV에 나온 변이체의 존재가 얼마 전 무전에서 들렸던 새로운 변이체라는 것을 확인한다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>닉의 CCTV 분석 결과를 들은 찰리 중령은 변이체 제거를 지시한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>찰리중령_4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>닉_3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>찰리 중령의 딸인 리아가 최근 닉에게 고민을 상담했다. 자신이 몰래 키우는 고양이가 몸이 좋지 않다는 것이였다. 닉은 고양이를 살펴보았고 고양이는 감기에 걸려 몸이 매우 약해져 있는 상태였다. 닉은 플레이어에게 고양이 치료를 위한 약을 얻어와달라고 부탁한다. 약을 받은 닉은 자신이 리아에게 전달해주려 했지만 플레이어가 고생해서 얻어왔으니 플레이어에게 리아가 고마움을 표시할 수 있도록 약 전달을 부탁한다.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -558,10 +606,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD9CBF0E-8926-4897-ADFC-E7D5CCA22D88}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -630,72 +678,156 @@
     </row>
     <row r="5" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>5</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B10" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D10" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="66" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+    <row r="11" spans="1:4" ht="66" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>25</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B11" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C11" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D11" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="66" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="66" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="B14" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C14" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="D14" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="2" t="s">
+      <c r="C15" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>28</v>
+      <c r="D15" s="2" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/_ExcelData/NPCData.xlsx
+++ b/Assets/_ExcelData/NPCData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\(R&amp;D)ChatAPI_QuestGenerator\Assets\_ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{342A723E-2A6D-413F-AC16-209D3ACF6591}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB7C2A74-073E-4E6A-AA06-072EBD1B8480}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{FABA762E-1D3F-45C2-A656-0C79C23C5F7F}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{FABA762E-1D3F-45C2-A656-0C79C23C5F7F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="47">
   <si>
     <t>Story</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -199,6 +199,30 @@
   </si>
   <si>
     <t>찰리 중령의 딸인 리아가 최근 닉에게 고민을 상담했다. 자신이 몰래 키우는 고양이가 몸이 좋지 않다는 것이였다. 닉은 고양이를 살펴보았고 고양이는 감기에 걸려 몸이 매우 약해져 있는 상태였다. 닉은 플레이어에게 고양이 치료를 위한 약을 얻어와달라고 부탁한다. 약을 받은 닉은 자신이 리아에게 전달해주려 했지만 플레이어가 고생해서 얻어왔으니 플레이어에게 리아가 고마움을 표시할 수 있도록 약 전달을 부탁한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>찰리중령_8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">계속되는 변이체 증가로 인해 찰리 중령은 원인을 찾아 뿌리뽑으려 한다. 그 원인을 찾기 위해 주변의 정찰을 부탁하고 특이 사항이 없는지 확인을 부탁한다. 플레이어는 찰리 중령의 앞선 부탁으로 변이체를 소탕하며 연구소 부근 거대한 물체가 지나간 것을 목격한다. 찰리 중령은 이를 확인하기 위해 플레이어에게 주변 CCTV정보를 모아올 것을 지시한다. 플레이어가 모아온 CCTV결과를 확인한 찰리 중령은 닉에게 CCTV 자료를 전달하고 그 변이체가 어떤 것인지 알아와 달라고 부탁한다. 닉은 해당 CCTV에 나온 변이체의 존재가 얼마 전 무전에서 들렸던 새로운 변이체라는 것을 확인한다. 닉의 CCTV 분석 결과를 들은 찰리 중령은 변이체 제거를 지시한다. 변이체 제거 후 찰리 중령은 근본적인 원인 해결을 위해 연구소 폭파를 결심한다. 따라서 플레이어에게 연구소 폭파를 위한 폭탄을 구해오라고 지시한다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>찰리중령_M1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>찰리중령_M2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">계속되는 변이체 증가로 인해 찰리 중령은 원인을 찾아 뿌리뽑으려 한다. 그 원인을 찾기 위해 주변의 정찰을 부탁하고 특이 사항이 없는지 확인을 부탁한다. 찰리 중령의 부탁을 받고 변이체를 해치우던 중 플레이어는 연구소 부근에서 거대한 물체가 지나간 것을 목격한다. 플레이어는 이를 찰리 중령에게 보고하였고, 찰리 중령은 이를 확인하기 위해 플레이어에게 주변 CCTV정보를 모아올 것을 지시한다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">플레이어가 모아온 CCTV결과 해석을 위해 찰리 중령은 닉에게 CCTV 자료를 전달하고 그 변이체가 어떤 것인지 알아와 달라고 플레이어에게 부탁한다. 닉은 해당 CCTV에 나온 변이체의 존재가 얼마 전 무전에서 들렸던 새로운 변이체라는 것을 확인한다. 닉의 CCTV 분석 결과를 들은 찰리 중령은 해당 변이가 베이스 캠프에 커다란 위험이 될 수 있으므로 제거를 지시한다. 변이체 제거 후 찰리 중령은 근본적인 원인 해결을 위해 연구소 폭파를 결심한다. 따라서 플레이어에게 연구소 폭파를 위한 폭탄을 구해오라고 지시한다. </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -606,10 +630,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD9CBF0E-8926-4897-ADFC-E7D5CCA22D88}">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -746,79 +770,79 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="148.5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="99" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>5</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B13" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C13" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D13" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="66" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+    <row r="14" spans="1:4" ht="66" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>25</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B14" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C14" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D14" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="66" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+    <row r="15" spans="1:4" ht="66" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>39</v>
       </c>
       <c r="B15" t="s">
         <v>11</v>
@@ -827,6 +851,48 @@
         <v>20</v>
       </c>
       <c r="D15" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>40</v>
       </c>
     </row>

--- a/Assets/_ExcelData/NPCData.xlsx
+++ b/Assets/_ExcelData/NPCData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\(R&amp;D)ChatAPI_QuestGenerator\Assets\_ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB7C2A74-073E-4E6A-AA06-072EBD1B8480}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{944D67E1-F077-4BD1-86E9-ACADEA690FDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{FABA762E-1D3F-45C2-A656-0C79C23C5F7F}"/>
   </bookViews>
@@ -632,8 +632,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD9CBF0E-8926-4897-ADFC-E7D5CCA22D88}">
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
